--- a/src/test/resources/testdata/mutlispaces.xlsx
+++ b/src/test/resources/testdata/mutlispaces.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talhatahir\git\Marina\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha.tahir\git\Marina\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D780E70-34B4-4040-A4F6-0D8AB37F8FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="6405"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginData" sheetId="1" r:id="rId1"/>
@@ -110,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,9 +141,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,11 +422,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,6 +434,7 @@
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
@@ -468,17 +469,17 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -491,10 +492,10 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
@@ -514,10 +515,10 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
@@ -537,10 +538,10 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
@@ -560,17 +561,17 @@
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
